--- a/Productbacklog.xlsx
+++ b/Productbacklog.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="46">
   <si>
     <t>Notes</t>
   </si>
@@ -139,6 +139,21 @@
   </si>
   <si>
     <t>Implement a way to store the password</t>
+  </si>
+  <si>
+    <t>2 weeks</t>
+  </si>
+  <si>
+    <t>Oct 20th</t>
+  </si>
+  <si>
+    <t>1 week</t>
+  </si>
+  <si>
+    <t>1.5 weeks</t>
+  </si>
+  <si>
+    <t>2.5 weeks</t>
   </si>
 </sst>
 </file>
@@ -665,7 +680,7 @@
   <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -708,8 +723,12 @@
       <c r="C2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="5"/>
+      <c r="D2" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>42</v>
+      </c>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
     </row>
@@ -786,7 +805,9 @@
       <c r="C8" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="14"/>
+      <c r="D8" s="13" t="s">
+        <v>43</v>
+      </c>
       <c r="E8" s="14"/>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
@@ -823,7 +844,9 @@
       <c r="C11" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="14"/>
+      <c r="D11" s="13" t="s">
+        <v>43</v>
+      </c>
       <c r="E11" s="14"/>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
@@ -854,13 +877,15 @@
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
     </row>
-    <row r="14" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="15"/>
       <c r="B14" s="14"/>
       <c r="C14" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="14"/>
+      <c r="D14" s="13" t="s">
+        <v>44</v>
+      </c>
       <c r="E14" s="14"/>
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
@@ -878,7 +903,7 @@
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
     </row>
-    <row r="16" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7"/>
       <c r="B16" s="8">
         <v>11</v>
@@ -897,12 +922,14 @@
       <c r="C17" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="14"/>
+      <c r="D17" s="13" t="s">
+        <v>45</v>
+      </c>
       <c r="E17" s="14"/>
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
     </row>
-    <row r="18" spans="1:7" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="7"/>
       <c r="B18" s="8">
         <v>12</v>
@@ -921,12 +948,14 @@
       <c r="C19" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D19" s="14"/>
+      <c r="D19" s="13" t="s">
+        <v>41</v>
+      </c>
       <c r="E19" s="14"/>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
     </row>
-    <row r="20" spans="1:7" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7"/>
       <c r="B20" s="8">
         <v>13</v>
@@ -939,7 +968,7 @@
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
     </row>
-    <row r="21" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7"/>
       <c r="B21" s="8">
         <v>14</v>
@@ -952,7 +981,7 @@
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
     </row>
-    <row r="22" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="16">
         <v>3</v>
       </c>
@@ -960,12 +989,14 @@
       <c r="C22" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="D22" s="17"/>
+      <c r="D22" s="18" t="s">
+        <v>43</v>
+      </c>
       <c r="E22" s="17"/>
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
     </row>
-    <row r="23" spans="1:7" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="7"/>
       <c r="B23" s="8">
         <v>15</v>
@@ -978,7 +1009,7 @@
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
     </row>
-    <row r="24" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="7"/>
       <c r="B24" s="8">
         <v>16</v>
@@ -991,18 +1022,20 @@
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
     </row>
-    <row r="25" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="19"/>
       <c r="B25" s="17"/>
       <c r="C25" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="D25" s="17"/>
+      <c r="D25" s="18" t="s">
+        <v>41</v>
+      </c>
       <c r="E25" s="17"/>
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
     </row>
-    <row r="26" spans="1:7" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="7"/>
       <c r="B26" s="8">
         <v>17</v>
@@ -1015,7 +1048,7 @@
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
     </row>
-    <row r="27" spans="1:7" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="7"/>
       <c r="B27" s="8">
         <v>18</v>
@@ -1034,12 +1067,14 @@
       <c r="C28" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="D28" s="17"/>
+      <c r="D28" s="18" t="s">
+        <v>43</v>
+      </c>
       <c r="E28" s="17"/>
       <c r="F28" s="6"/>
       <c r="G28" s="6"/>
     </row>
-    <row r="29" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="7"/>
       <c r="B29" s="8">
         <v>19</v>
@@ -1052,7 +1087,7 @@
       <c r="F29" s="6"/>
       <c r="G29" s="6"/>
     </row>
-    <row r="30" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="7"/>
       <c r="B30" s="8">
         <v>20</v>
@@ -1071,12 +1106,14 @@
       <c r="C31" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="D31" s="17"/>
+      <c r="D31" s="18" t="s">
+        <v>41</v>
+      </c>
       <c r="E31" s="17"/>
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
     </row>
-    <row r="32" spans="1:7" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="7"/>
       <c r="B32" s="8">
         <v>21</v>
@@ -1089,7 +1126,7 @@
       <c r="F32" s="6"/>
       <c r="G32" s="6"/>
     </row>
-    <row r="33" spans="1:7" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="7"/>
       <c r="B33" s="8">
         <v>22</v>
@@ -1110,7 +1147,9 @@
       <c r="C34" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="D34" s="21"/>
+      <c r="D34" s="22" t="s">
+        <v>43</v>
+      </c>
       <c r="E34" s="21"/>
       <c r="F34" s="6"/>
       <c r="G34" s="6"/>
@@ -1126,7 +1165,7 @@
       <c r="F35" s="6"/>
       <c r="G35" s="6"/>
     </row>
-    <row r="36" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="23"/>
       <c r="B36" s="6"/>
       <c r="C36" s="9" t="s">
